--- a/g9.xlsx
+++ b/g9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>tt0068646</t>
   </si>
@@ -28,9 +28,6 @@
     <t>tt0111161</t>
   </si>
   <si>
-    <t>tt0111893</t>
-  </si>
-  <si>
     <t>tt0141842</t>
   </si>
   <si>
@@ -121,210 +118,33 @@
     <t>tt0462423</t>
   </si>
   <si>
-    <t>tt0533443</t>
-  </si>
-  <si>
-    <t>tt0533466</t>
-  </si>
-  <si>
-    <t>tt0533496</t>
-  </si>
-  <si>
-    <t>tt0562995</t>
-  </si>
-  <si>
-    <t>tt0562996</t>
-  </si>
-  <si>
-    <t>tt0562998</t>
-  </si>
-  <si>
-    <t>tt0563000</t>
-  </si>
-  <si>
-    <t>tt0579533</t>
-  </si>
-  <si>
-    <t>tt0583433</t>
-  </si>
-  <si>
-    <t>tt0583452</t>
-  </si>
-  <si>
-    <t>tt0583600</t>
-  </si>
-  <si>
-    <t>tt0583606</t>
-  </si>
-  <si>
-    <t>tt0583635</t>
-  </si>
-  <si>
-    <t>tt0583642</t>
-  </si>
-  <si>
-    <t>tt0606046</t>
-  </si>
-  <si>
-    <t>tt0606115</t>
-  </si>
-  <si>
-    <t>tt0636276</t>
-  </si>
-  <si>
-    <t>tt0636279</t>
-  </si>
-  <si>
-    <t>tt0636280</t>
-  </si>
-  <si>
-    <t>tt0636285</t>
-  </si>
-  <si>
-    <t>tt0636286</t>
-  </si>
-  <si>
-    <t>tt0636289</t>
-  </si>
-  <si>
-    <t>tt0636290</t>
-  </si>
-  <si>
-    <t>tt0636300</t>
-  </si>
-  <si>
-    <t>tt0664528</t>
-  </si>
-  <si>
-    <t>tt0697679</t>
-  </si>
-  <si>
-    <t>tt0701989</t>
-  </si>
-  <si>
-    <t>tt0705272</t>
-  </si>
-  <si>
-    <t>tt0705958</t>
-  </si>
-  <si>
-    <t>tt0708803</t>
-  </si>
-  <si>
-    <t>tt0751081</t>
-  </si>
-  <si>
-    <t>tt0751092</t>
-  </si>
-  <si>
-    <t>tt0756450</t>
-  </si>
-  <si>
-    <t>tt0769383</t>
-  </si>
-  <si>
-    <t>tt0775325</t>
-  </si>
-  <si>
-    <t>tt0793130</t>
-  </si>
-  <si>
     <t>tt0795176</t>
   </si>
   <si>
-    <t>tt0800604</t>
-  </si>
-  <si>
-    <t>tt0829063</t>
-  </si>
-  <si>
     <t>tt0846694</t>
   </si>
   <si>
-    <t>tt0850173</t>
-  </si>
-  <si>
     <t>tt0853117</t>
   </si>
   <si>
-    <t>tt0866568</t>
-  </si>
-  <si>
-    <t>tt0866569</t>
-  </si>
-  <si>
-    <t>tt0877058</t>
-  </si>
-  <si>
-    <t>tt0885872</t>
-  </si>
-  <si>
     <t>tt0903747</t>
   </si>
   <si>
-    <t>tt0928284</t>
-  </si>
-  <si>
-    <t>tt0939444</t>
-  </si>
-  <si>
     <t>tt0944947</t>
   </si>
   <si>
-    <t>tt0959621</t>
-  </si>
-  <si>
-    <t>tt0987714</t>
-  </si>
-  <si>
-    <t>tt0987715</t>
-  </si>
-  <si>
-    <t>tt0992244</t>
-  </si>
-  <si>
-    <t>tt0994352</t>
-  </si>
-  <si>
-    <t>tt0994365</t>
-  </si>
-  <si>
-    <t>tt0995839</t>
-  </si>
-  <si>
-    <t>tt0998660</t>
-  </si>
-  <si>
-    <t>tt1000252</t>
-  </si>
-  <si>
-    <t>tt1000256</t>
-  </si>
-  <si>
-    <t>tt10023374</t>
-  </si>
-  <si>
-    <t>tt10023452</t>
-  </si>
-  <si>
-    <t>tt10034602</t>
-  </si>
-  <si>
-    <t>tt1004798</t>
-  </si>
-  <si>
-    <t>tt10064964</t>
-  </si>
-  <si>
-    <t>tt10064968</t>
-  </si>
-  <si>
     <t>tt10161318</t>
   </si>
   <si>
+    <t>tt10161334</t>
+  </si>
+  <si>
     <t>tt10189514</t>
   </si>
   <si>
+    <t>tt1030253</t>
+  </si>
+  <si>
     <t>tt1031453</t>
   </si>
   <si>
@@ -415,6 +235,9 @@
     <t>tt1201133</t>
   </si>
   <si>
+    <t>tt1204264</t>
+  </si>
+  <si>
     <t>tt1204265</t>
   </si>
   <si>
@@ -523,6 +346,9 @@
     <t>tt13052880</t>
   </si>
   <si>
+    <t>tt13080922</t>
+  </si>
+  <si>
     <t>tt1319916</t>
   </si>
   <si>
@@ -538,6 +364,9 @@
     <t>tt1355642</t>
   </si>
   <si>
+    <t>tt13605474</t>
+  </si>
+  <si>
     <t>tt13605712</t>
   </si>
   <si>
@@ -634,6 +463,9 @@
     <t>tt1541718</t>
   </si>
   <si>
+    <t>tt1559909</t>
+  </si>
+  <si>
     <t>tt1568322</t>
   </si>
   <si>
@@ -676,6 +508,9 @@
     <t>tt1640867</t>
   </si>
   <si>
+    <t>tt1640874</t>
+  </si>
+  <si>
     <t>tt1648163</t>
   </si>
   <si>
@@ -730,6 +565,9 @@
     <t>tt1831164</t>
   </si>
   <si>
+    <t>tt1833194</t>
+  </si>
+  <si>
     <t>tt1833197</t>
   </si>
   <si>
@@ -850,6 +688,9 @@
     <t>tt2395695</t>
   </si>
   <si>
+    <t>tt2440660</t>
+  </si>
+  <si>
     <t>tt2461638</t>
   </si>
   <si>
@@ -1471,6 +1312,9 @@
     <t>tt6290024</t>
   </si>
   <si>
+    <t>tt6439870</t>
+  </si>
+  <si>
     <t>tt6542628</t>
   </si>
   <si>
@@ -1480,6 +1324,9 @@
     <t>tt6633682</t>
   </si>
   <si>
+    <t>tt6633686</t>
+  </si>
+  <si>
     <t>tt6633696</t>
   </si>
   <si>
@@ -1519,6 +1366,9 @@
     <t>tt6741934</t>
   </si>
   <si>
+    <t>tt6741946</t>
+  </si>
+  <si>
     <t>tt6741948</t>
   </si>
   <si>
@@ -1529,15 +1379,6 @@
   </si>
   <si>
     <t>tt6816492</t>
-  </si>
-  <si>
-    <t>tt7029252</t>
-  </si>
-  <si>
-    <t>tt7074030</t>
-  </si>
-  <si>
-    <t>tt7074032</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C509"/>
+  <dimension ref="A1:C456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,7 +1761,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C2">
-        <v>1659835</v>
+        <v>1666194</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1931,7 +1772,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C3">
-        <v>22785</v>
+        <v>22882</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1942,7 +1783,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C4">
-        <v>37456</v>
+        <v>37584</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1953,7 +1794,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C5">
-        <v>2396298</v>
+        <v>2407692</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1961,10 +1802,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C6">
-        <v>7950</v>
+        <v>315590</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1972,10 +1813,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C7">
-        <v>313047</v>
+        <v>14694</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,10 +1824,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C8">
-        <v>14683</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1994,10 +1835,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C9">
-        <v>5379</v>
+        <v>10891</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2008,7 +1849,7 @@
         <v>9.6</v>
       </c>
       <c r="C10">
-        <v>10865</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2016,10 +1857,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="C11">
-        <v>8480</v>
+        <v>388687</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2027,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C12">
-        <v>386639</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2041,7 +1882,7 @@
         <v>9.1</v>
       </c>
       <c r="C13">
-        <v>5160</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2052,7 +1893,7 @@
         <v>9.1</v>
       </c>
       <c r="C14">
-        <v>5200</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2060,10 +1901,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="C15">
-        <v>5159</v>
+        <v>9057</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2071,10 +1912,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C16">
-        <v>9033</v>
+        <v>9224</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2082,10 +1923,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C17">
-        <v>9176</v>
+        <v>38382</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2093,10 +1934,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C18">
-        <v>38244</v>
+        <v>16376</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2104,10 +1945,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="C19">
-        <v>15888</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2115,10 +1956,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C20">
-        <v>5877</v>
+        <v>6714</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2126,10 +1967,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C21">
-        <v>6692</v>
+        <v>13414</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2137,10 +1978,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C22">
-        <v>13377</v>
+        <v>294248</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2148,10 +1989,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C23">
-        <v>292759</v>
+        <v>23452</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2162,7 +2003,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C24">
-        <v>23366</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2173,7 +2014,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C25">
-        <v>6797</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2181,10 +2022,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C26">
-        <v>5298</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2195,7 +2036,7 @@
         <v>9.5</v>
       </c>
       <c r="C27">
-        <v>7762</v>
+        <v>9425</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2203,10 +2044,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="C28">
-        <v>9397</v>
+        <v>9774</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2214,10 +2055,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="C29">
-        <v>9744</v>
+        <v>14841</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2228,7 +2069,7 @@
         <v>9.4</v>
       </c>
       <c r="C30">
-        <v>14796</v>
+        <v>35673</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2236,10 +2077,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C31">
-        <v>35503</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2247,10 +2088,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C32">
-        <v>6708</v>
+        <v>11291</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2258,10 +2099,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C33">
-        <v>11185</v>
+        <v>9056</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2269,10 +2110,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C34">
-        <v>9005</v>
+        <v>261030</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2280,10 +2121,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C35">
-        <v>258565</v>
+        <v>9992</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2294,7 +2135,7 @@
         <v>9.4</v>
       </c>
       <c r="C36">
-        <v>9970</v>
+        <v>170939</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2302,10 +2143,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C37">
-        <v>6605</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2313,10 +2154,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C38">
-        <v>8922</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2324,10 +2165,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C39">
-        <v>5799</v>
+        <v>1527691</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2335,10 +2176,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C40">
-        <v>7263</v>
+        <v>1824706</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2349,7 +2190,7 @@
         <v>9.1</v>
       </c>
       <c r="C41">
-        <v>7922</v>
+        <v>19833</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2357,10 +2198,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C42">
-        <v>9946</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2371,7 +2212,7 @@
         <v>9.1</v>
       </c>
       <c r="C43">
-        <v>6891</v>
+        <v>83116</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2382,7 +2223,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C44">
-        <v>5252</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2390,10 +2231,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C45">
-        <v>12733</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2401,10 +2242,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C46">
-        <v>9531</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2412,10 +2253,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="C47">
-        <v>7178</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2423,10 +2264,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="C48">
-        <v>5077</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2434,10 +2275,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C49">
-        <v>6708</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2445,10 +2286,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C50">
-        <v>6110</v>
+        <v>10111</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2456,10 +2297,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="C51">
-        <v>6572</v>
+        <v>11027</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2467,10 +2308,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C52">
-        <v>5313</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2478,10 +2319,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C53">
-        <v>5300</v>
+        <v>12421</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2489,10 +2330,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C54">
-        <v>5350</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2500,10 +2341,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C55">
-        <v>5965</v>
+        <v>12569</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2511,10 +2352,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C56">
-        <v>5731</v>
+        <v>9103</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2522,10 +2363,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C57">
-        <v>5397</v>
+        <v>21039</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2533,10 +2374,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C58">
-        <v>9737</v>
+        <v>9679</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2544,10 +2385,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C59">
-        <v>7403</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2558,7 +2399,7 @@
         <v>9.1</v>
       </c>
       <c r="C60">
-        <v>6597</v>
+        <v>17723</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2566,10 +2407,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C61">
-        <v>5490</v>
+        <v>16582</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2580,7 +2421,7 @@
         <v>9.5</v>
       </c>
       <c r="C62">
-        <v>5496</v>
+        <v>22710</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2588,10 +2429,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C63">
-        <v>8208</v>
+        <v>14306</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2599,10 +2440,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C64">
-        <v>7802</v>
+        <v>17522</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2610,10 +2451,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="C65">
-        <v>7558</v>
+        <v>11918</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2621,10 +2462,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C66">
-        <v>6120</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2632,10 +2473,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C67">
-        <v>5111</v>
+        <v>11343</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2643,10 +2484,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C68">
-        <v>5583</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2654,10 +2495,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C69">
-        <v>8028</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2665,10 +2506,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C70">
-        <v>5445</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2676,10 +2517,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C71">
-        <v>5170</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2687,10 +2528,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C72">
-        <v>6689</v>
+        <v>7923</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2698,10 +2539,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C73">
-        <v>170455</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2709,10 +2550,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C74">
-        <v>6022</v>
+        <v>21009</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2720,10 +2561,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C75">
-        <v>5438</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2731,10 +2572,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="C76">
-        <v>8015</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2742,10 +2583,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="C77">
-        <v>6799</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2753,10 +2594,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C78">
-        <v>5677</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2764,10 +2605,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C79">
-        <v>5063</v>
+        <v>8643</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2775,10 +2616,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C80">
-        <v>5162</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2786,10 +2627,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="C81">
-        <v>7934</v>
+        <v>8339</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2797,10 +2638,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C82">
-        <v>6293</v>
+        <v>8559</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2808,10 +2649,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C83">
-        <v>1515484</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2819,10 +2660,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="C84">
-        <v>5612</v>
+        <v>10913</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2830,10 +2671,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C85">
-        <v>5232</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2841,10 +2682,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C86">
-        <v>1813810</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2852,10 +2693,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C87">
-        <v>26915</v>
+        <v>17778</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2863,10 +2704,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C88">
-        <v>5407</v>
+        <v>17730</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2877,7 +2718,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C89">
-        <v>5421</v>
+        <v>19175</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2888,7 +2729,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C90">
-        <v>5520</v>
+        <v>18416</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2896,10 +2737,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C91">
-        <v>5575</v>
+        <v>17833</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2907,10 +2748,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C92">
-        <v>11311</v>
+        <v>110176</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2918,10 +2759,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C93">
-        <v>7082</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2932,7 +2773,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C94">
-        <v>5580</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2940,10 +2781,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C95">
-        <v>18734</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2951,10 +2792,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C96">
-        <v>7672</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2962,10 +2803,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="C97">
-        <v>26673</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2973,10 +2814,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C98">
-        <v>11664</v>
+        <v>10806</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2984,10 +2825,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="C99">
-        <v>23218</v>
+        <v>10748</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2995,10 +2836,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C100">
-        <v>10503</v>
+        <v>11701</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3006,10 +2847,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C101">
-        <v>13229</v>
+        <v>11334</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3020,7 +2861,7 @@
         <v>9.6</v>
       </c>
       <c r="C102">
-        <v>11585</v>
+        <v>14885</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3028,10 +2869,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C103">
-        <v>19563</v>
+        <v>19887</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3039,10 +2880,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C104">
-        <v>79638</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3050,10 +2891,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C105">
-        <v>5059</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3061,10 +2902,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C106">
-        <v>7328</v>
+        <v>24562</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3072,10 +2913,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C107">
-        <v>5032</v>
+        <v>7243</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3083,10 +2924,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C108">
-        <v>6651</v>
+        <v>10065</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3094,10 +2935,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C109">
-        <v>7942</v>
+        <v>26137</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3108,7 +2949,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C110">
-        <v>10024</v>
+        <v>19617</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3116,10 +2957,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C111">
-        <v>10934</v>
+        <v>47015</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3130,7 +2971,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C112">
-        <v>10066</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3138,10 +2979,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C113">
-        <v>12316</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3149,10 +2990,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C114">
-        <v>9959</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3163,7 +3004,7 @@
         <v>9.5</v>
       </c>
       <c r="C115">
-        <v>12475</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3171,10 +3012,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C116">
-        <v>8563</v>
+        <v>21782</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3182,10 +3023,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C117">
-        <v>20833</v>
+        <v>131391</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3193,10 +3034,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C118">
-        <v>9515</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3207,7 +3048,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C119">
-        <v>6763</v>
+        <v>19236</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3215,10 +3056,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="C120">
-        <v>17692</v>
+        <v>39615</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3226,10 +3067,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C121">
-        <v>16456</v>
+        <v>19910</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3237,10 +3078,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="C122">
-        <v>22465</v>
+        <v>37951</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3248,10 +3089,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="C123">
-        <v>14156</v>
+        <v>54054</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3259,10 +3100,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C124">
-        <v>17450</v>
+        <v>23619</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3270,10 +3111,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C125">
-        <v>11715</v>
+        <v>16686</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3281,10 +3122,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C126">
-        <v>5175</v>
+        <v>11887</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3292,10 +3133,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C127">
-        <v>11300</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3303,10 +3144,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C128">
-        <v>7384</v>
+        <v>11318</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3314,10 +3155,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C129">
-        <v>8419</v>
+        <v>13824</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3328,7 +3169,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C130">
-        <v>9285</v>
+        <v>12765</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3336,10 +3177,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C131">
-        <v>7625</v>
+        <v>12036</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3347,10 +3188,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C132">
-        <v>7792</v>
+        <v>11071</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3358,10 +3199,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C133">
-        <v>8957</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3369,10 +3210,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C134">
-        <v>20915</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3380,10 +3221,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="C135">
-        <v>8232</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3391,10 +3232,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C136">
-        <v>6452</v>
+        <v>11267</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3402,10 +3243,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C137">
-        <v>7386</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3413,10 +3254,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C138">
-        <v>8607</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3424,10 +3265,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C139">
-        <v>7649</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3435,10 +3276,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C140">
-        <v>8301</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3446,10 +3287,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C141">
-        <v>8532</v>
+        <v>830634</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3457,10 +3298,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C142">
-        <v>7983</v>
+        <v>23544</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3468,10 +3309,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="C143">
-        <v>10744</v>
+        <v>42037</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3479,10 +3320,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="C144">
-        <v>6523</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3490,10 +3331,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C145">
-        <v>5602</v>
+        <v>8726</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3501,10 +3342,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C146">
-        <v>17591</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3512,10 +3353,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C147">
-        <v>17552</v>
+        <v>38517</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3523,10 +3364,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C148">
-        <v>18988</v>
+        <v>18329</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3534,10 +3375,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C149">
-        <v>18228</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3545,10 +3386,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C150">
-        <v>17649</v>
+        <v>7337</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3556,10 +3397,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C151">
-        <v>101296</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3567,10 +3408,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C152">
-        <v>6762</v>
+        <v>27506</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3581,7 +3422,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C153">
-        <v>7162</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3592,7 +3433,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C154">
-        <v>5706</v>
+        <v>21718</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3600,10 +3441,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C155">
-        <v>6488</v>
+        <v>9941</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3611,10 +3452,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C156">
-        <v>7092</v>
+        <v>10615</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3622,10 +3463,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C157">
-        <v>10656</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3636,7 +3477,7 @@
         <v>9.1</v>
       </c>
       <c r="C158">
-        <v>10658</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3644,10 +3485,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="C159">
-        <v>11604</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3655,10 +3496,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C160">
-        <v>11247</v>
+        <v>22938</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3666,10 +3507,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C161">
-        <v>14768</v>
+        <v>16981</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3677,10 +3518,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C162">
-        <v>19718</v>
+        <v>21002</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3688,10 +3529,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C163">
-        <v>5439</v>
+        <v>9099</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3699,10 +3540,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C164">
-        <v>7368</v>
+        <v>8751</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3710,10 +3551,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C165">
-        <v>24474</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3721,10 +3562,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="C166">
-        <v>6977</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3732,10 +3573,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C167">
-        <v>9923</v>
+        <v>13899</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3743,10 +3584,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C168">
-        <v>25967</v>
+        <v>25752</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3757,7 +3598,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C169">
-        <v>19476</v>
+        <v>18246</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3765,10 +3606,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C170">
-        <v>46685</v>
+        <v>21570</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3779,7 +3620,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C171">
-        <v>5418</v>
+        <v>25067</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3787,10 +3628,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C172">
-        <v>6717</v>
+        <v>19369</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3798,10 +3639,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="C173">
-        <v>7241</v>
+        <v>47993</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3809,10 +3650,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C174">
-        <v>21662</v>
+        <v>17091</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3823,7 +3664,7 @@
         <v>9.1</v>
       </c>
       <c r="C175">
-        <v>129640</v>
+        <v>18371</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3831,10 +3672,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C176">
-        <v>19012</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3842,10 +3683,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="C177">
-        <v>39106</v>
+        <v>12222</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3853,10 +3694,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C178">
-        <v>19666</v>
+        <v>13840</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3864,10 +3705,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C179">
-        <v>37441</v>
+        <v>14666</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3875,10 +3716,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="C180">
-        <v>53423</v>
+        <v>26703</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3886,10 +3727,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="C181">
-        <v>23350</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3897,10 +3738,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C182">
-        <v>16460</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3911,7 +3752,7 @@
         <v>9.1</v>
       </c>
       <c r="C183">
-        <v>11649</v>
+        <v>29685</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3919,10 +3760,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C184">
-        <v>5666</v>
+        <v>90203</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3930,10 +3771,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C185">
-        <v>11067</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3941,10 +3782,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C186">
-        <v>13518</v>
+        <v>11070</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3952,10 +3793,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C187">
-        <v>12329</v>
+        <v>29381</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3963,10 +3804,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C188">
-        <v>11657</v>
+        <v>29881</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3974,10 +3815,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C189">
-        <v>10574</v>
+        <v>14298</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3985,10 +3826,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="C190">
-        <v>6440</v>
+        <v>34502</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3999,7 +3840,7 @@
         <v>9.6</v>
       </c>
       <c r="C191">
-        <v>5523</v>
+        <v>39305</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4007,10 +3848,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="C192">
-        <v>5199</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4018,10 +3859,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C193">
-        <v>11175</v>
+        <v>21370</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4029,10 +3870,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C194">
-        <v>5173</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4040,10 +3881,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C195">
-        <v>5436</v>
+        <v>36553</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4051,10 +3892,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C196">
-        <v>7762</v>
+        <v>35485</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4065,7 +3906,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C197">
-        <v>6027</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4073,10 +3914,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C198">
-        <v>826401</v>
+        <v>9634</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4084,10 +3925,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C199">
-        <v>23447</v>
+        <v>21342</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4095,10 +3936,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C200">
-        <v>41821</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4106,10 +3947,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C201">
-        <v>5742</v>
+        <v>25548</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4117,10 +3958,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C202">
-        <v>8690</v>
+        <v>52231</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4128,10 +3969,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="C203">
-        <v>5658</v>
+        <v>30291</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4139,10 +3980,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C204">
-        <v>38444</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4153,7 +3994,7 @@
         <v>9.5</v>
       </c>
       <c r="C205">
-        <v>18193</v>
+        <v>7881</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4161,10 +4002,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C206">
-        <v>5915</v>
+        <v>52889</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4172,10 +4013,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="C207">
-        <v>7312</v>
+        <v>94008</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4183,10 +4024,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C208">
-        <v>27395</v>
+        <v>27866</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4194,10 +4035,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C209">
-        <v>8151</v>
+        <v>33422</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4205,10 +4046,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C210">
-        <v>21587</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4219,7 +4060,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C211">
-        <v>9892</v>
+        <v>13653</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4227,10 +4068,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C212">
-        <v>10524</v>
+        <v>20137</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4238,10 +4079,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C213">
-        <v>6414</v>
+        <v>24611</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4249,10 +4090,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C214">
-        <v>6622</v>
+        <v>21030</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4260,10 +4101,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C215">
-        <v>20110</v>
+        <v>35838</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4271,10 +4112,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>9.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="C216">
-        <v>22715</v>
+        <v>138688</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4282,10 +4123,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C217">
-        <v>16815</v>
+        <v>35940</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4293,10 +4134,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="C218">
-        <v>20797</v>
+        <v>94379</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4307,7 +4148,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C219">
-        <v>9063</v>
+        <v>26150</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4315,10 +4156,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="C220">
-        <v>8720</v>
+        <v>18106</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4326,10 +4167,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C221">
-        <v>6231</v>
+        <v>23366</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4337,10 +4178,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="C222">
-        <v>13842</v>
+        <v>23717</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4348,10 +4189,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="C223">
-        <v>25663</v>
+        <v>23006</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4359,10 +4200,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C224">
-        <v>18082</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4370,10 +4211,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C225">
-        <v>21358</v>
+        <v>113519</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4381,10 +4222,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C226">
-        <v>24829</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4392,10 +4233,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C227">
-        <v>19184</v>
+        <v>7584</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4403,10 +4244,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C228">
-        <v>47412</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4414,10 +4255,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C229">
-        <v>16925</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4425,10 +4266,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C230">
-        <v>18315</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4436,10 +4277,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="C231">
-        <v>6734</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4447,10 +4288,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C232">
-        <v>12143</v>
+        <v>13776</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4458,10 +4299,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C233">
-        <v>13762</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4469,10 +4310,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C234">
-        <v>14584</v>
+        <v>17355</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4480,10 +4321,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C235">
-        <v>26605</v>
+        <v>28412</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4491,10 +4332,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C236">
-        <v>6543</v>
+        <v>24319</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4502,10 +4343,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C237">
-        <v>5583</v>
+        <v>16288</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4513,10 +4354,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C238">
-        <v>29538</v>
+        <v>17993</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4524,10 +4365,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C239">
-        <v>89934</v>
+        <v>15009</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4535,10 +4376,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C240">
-        <v>10885</v>
+        <v>14659</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4546,10 +4387,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C241">
-        <v>29229</v>
+        <v>20775</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4557,10 +4398,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C242">
-        <v>29729</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4571,7 +4412,7 @@
         <v>9.1</v>
       </c>
       <c r="C243">
-        <v>14216</v>
+        <v>31227</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4579,10 +4420,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C244">
-        <v>34317</v>
+        <v>12462</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4590,10 +4431,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C245">
-        <v>39115</v>
+        <v>48918</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4601,10 +4442,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C246">
-        <v>5176</v>
+        <v>395568</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4612,10 +4453,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="C247">
-        <v>21234</v>
+        <v>9538</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4623,10 +4464,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C248">
-        <v>5384</v>
+        <v>8767</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4634,10 +4475,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C249">
-        <v>36433</v>
+        <v>8643</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4645,10 +4486,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="C250">
-        <v>35365</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4656,10 +4497,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C251">
-        <v>11042</v>
+        <v>23485</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4667,10 +4508,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C252">
-        <v>9525</v>
+        <v>21533</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4678,10 +4519,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C253">
-        <v>21151</v>
+        <v>8061</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4692,7 +4533,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C254">
-        <v>42641</v>
+        <v>49005</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4700,10 +4541,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C255">
-        <v>25427</v>
+        <v>41639</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4711,10 +4552,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C256">
-        <v>51896</v>
+        <v>41039</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4722,10 +4563,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C257">
-        <v>30145</v>
+        <v>27481</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4733,10 +4574,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C258">
-        <v>5020</v>
+        <v>45843</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4744,10 +4585,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C259">
-        <v>7849</v>
+        <v>12679</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4755,10 +4596,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C260">
-        <v>52561</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4766,10 +4607,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="C261">
-        <v>93600</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4780,7 +4621,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C262">
-        <v>27723</v>
+        <v>7884</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4788,10 +4629,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C263">
-        <v>33253</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4799,10 +4640,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C264">
-        <v>5651</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4810,10 +4651,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C265">
-        <v>13580</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4824,7 +4665,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C266">
-        <v>19949</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4832,10 +4673,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C267">
-        <v>24408</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4843,10 +4684,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C268">
-        <v>20842</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4854,10 +4695,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C269">
-        <v>35380</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4865,10 +4706,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C270">
-        <v>137353</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4876,10 +4717,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C271">
-        <v>35533</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4890,7 +4731,7 @@
         <v>9.9</v>
       </c>
       <c r="C272">
-        <v>93585</v>
+        <v>17265</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4898,10 +4739,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C273">
-        <v>25914</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4909,10 +4750,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C274">
-        <v>17924</v>
+        <v>14186</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4920,10 +4761,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C275">
-        <v>23141</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4934,7 +4775,7 @@
         <v>9.6</v>
       </c>
       <c r="C276">
-        <v>23516</v>
+        <v>24805</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4942,10 +4783,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C277">
-        <v>22814</v>
+        <v>14686</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4953,10 +4794,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C278">
-        <v>5436</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4964,10 +4805,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C279">
-        <v>113132</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4975,10 +4816,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C280">
-        <v>7465</v>
+        <v>11898</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4986,10 +4827,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C281">
-        <v>7364</v>
+        <v>12454</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4997,10 +4838,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="C282">
-        <v>6061</v>
+        <v>23263</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5008,10 +4849,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C283">
-        <v>44253</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5019,10 +4860,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C284">
-        <v>5299</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5030,10 +4871,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C285">
-        <v>13584</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5041,10 +4882,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C286">
-        <v>7375</v>
+        <v>7305</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5052,10 +4893,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="C287">
-        <v>17315</v>
+        <v>9054</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5063,10 +4904,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C288">
-        <v>28343</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5074,10 +4915,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C289">
-        <v>24173</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5085,10 +4926,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C290">
-        <v>16184</v>
+        <v>9094</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5096,10 +4937,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="C291">
-        <v>17874</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5107,10 +4948,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C292">
-        <v>14902</v>
+        <v>8731</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5118,10 +4959,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C293">
-        <v>14557</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5132,7 +4973,7 @@
         <v>9.6</v>
       </c>
       <c r="C294">
-        <v>20632</v>
+        <v>8959</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5140,10 +4981,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C295">
-        <v>8532</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5151,10 +4992,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C296">
-        <v>31093</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5162,10 +5003,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C297">
-        <v>12216</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5173,10 +5014,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C298">
-        <v>48714</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5184,10 +5025,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C299">
-        <v>391782</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5195,10 +5036,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C300">
-        <v>9339</v>
+        <v>25963</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5206,10 +5047,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="C301">
-        <v>8581</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5220,7 +5061,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C302">
-        <v>8458</v>
+        <v>14743</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5228,10 +5069,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C303">
-        <v>8305</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5239,10 +5080,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C304">
-        <v>23359</v>
+        <v>14489</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5250,10 +5091,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C305">
-        <v>21349</v>
+        <v>40489</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5261,10 +5102,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="C306">
-        <v>7890</v>
+        <v>92870</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5272,10 +5113,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C307">
-        <v>48807</v>
+        <v>39209</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5286,7 +5127,7 @@
         <v>9.6</v>
       </c>
       <c r="C308">
-        <v>41449</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5294,10 +5135,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C309">
-        <v>40840</v>
+        <v>11197</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5305,10 +5146,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C310">
-        <v>27339</v>
+        <v>8216</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5316,10 +5157,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C311">
-        <v>45616</v>
+        <v>53437</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5330,7 +5171,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C312">
-        <v>12599</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5341,7 +5182,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C313">
-        <v>7974</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5349,10 +5190,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C314">
-        <v>7595</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5360,10 +5201,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C315">
-        <v>7709</v>
+        <v>8229</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5371,10 +5212,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C316">
-        <v>7729</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5385,7 +5226,7 @@
         <v>9.6</v>
       </c>
       <c r="C317">
-        <v>9207</v>
+        <v>11372</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5396,7 +5237,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C318">
-        <v>7715</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5404,10 +5245,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C319">
-        <v>7692</v>
+        <v>7825</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5415,10 +5256,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C320">
-        <v>7742</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5426,10 +5267,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="C321">
-        <v>8762</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5437,10 +5278,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C322">
-        <v>5706</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5448,10 +5289,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C323">
-        <v>5720</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5459,10 +5300,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C324">
-        <v>5002</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5473,7 +5314,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C325">
-        <v>17175</v>
+        <v>12622</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5481,10 +5322,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C326">
-        <v>5184</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5492,10 +5333,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C327">
-        <v>14109</v>
+        <v>9907</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5503,10 +5344,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="C328">
-        <v>5498</v>
+        <v>11659</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5517,7 +5358,7 @@
         <v>9.6</v>
       </c>
       <c r="C329">
-        <v>24715</v>
+        <v>13758</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5525,10 +5366,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C330">
-        <v>14605</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5536,10 +5377,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="C331">
-        <v>6406</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5547,10 +5388,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C332">
-        <v>5552</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5558,10 +5399,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C333">
-        <v>11791</v>
+        <v>11859</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5569,10 +5410,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C334">
-        <v>12339</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5580,10 +5421,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="C335">
-        <v>23039</v>
+        <v>32330</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5591,10 +5432,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C336">
-        <v>6136</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5602,10 +5443,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C337">
-        <v>5016</v>
+        <v>34324</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5613,10 +5454,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C338">
-        <v>7070</v>
+        <v>66837</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5624,10 +5465,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>9.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="C339">
-        <v>7251</v>
+        <v>194646</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5635,10 +5476,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="C340">
-        <v>9009</v>
+        <v>136226</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5646,10 +5487,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C341">
-        <v>5146</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5657,10 +5498,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C342">
-        <v>5029</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5668,10 +5509,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C343">
-        <v>9040</v>
+        <v>14067</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5682,7 +5523,7 @@
         <v>9.4</v>
       </c>
       <c r="C344">
-        <v>8234</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5690,10 +5531,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C345">
-        <v>8670</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5701,10 +5542,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C346">
-        <v>5209</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5712,10 +5553,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C347">
-        <v>8819</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5723,10 +5564,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C348">
-        <v>6186</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5734,10 +5575,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C349">
-        <v>6006</v>
+        <v>25871</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5745,10 +5586,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C350">
-        <v>5305</v>
+        <v>16840</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5756,10 +5597,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C351">
-        <v>5388</v>
+        <v>19838</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5767,10 +5608,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C352">
-        <v>6921</v>
+        <v>19282</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5778,10 +5619,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C353">
-        <v>25889</v>
+        <v>14571</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5789,10 +5630,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C354">
-        <v>7675</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5800,10 +5641,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C355">
-        <v>14680</v>
+        <v>9622</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5811,10 +5652,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C356">
-        <v>5316</v>
+        <v>9890</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5822,10 +5663,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C357">
-        <v>14387</v>
+        <v>14996</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5833,10 +5674,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C358">
-        <v>40319</v>
+        <v>9513</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5844,10 +5685,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="C359">
-        <v>92539</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5858,7 +5699,7 @@
         <v>9.1</v>
       </c>
       <c r="C360">
-        <v>39053</v>
+        <v>61755</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5866,10 +5707,10 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C361">
-        <v>5975</v>
+        <v>9335</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5877,10 +5718,10 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="C362">
-        <v>11097</v>
+        <v>14706</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5891,7 +5732,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C363">
-        <v>8181</v>
+        <v>11781</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5899,10 +5740,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="C364">
-        <v>53194</v>
+        <v>11863</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5910,10 +5751,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C365">
-        <v>6106</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5921,10 +5762,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C366">
-        <v>6818</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5932,10 +5773,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C367">
-        <v>6460</v>
+        <v>9316</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5943,10 +5784,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C368">
-        <v>8200</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5957,7 +5798,7 @@
         <v>9.5</v>
       </c>
       <c r="C369">
-        <v>8235</v>
+        <v>8877</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5965,10 +5806,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="C370">
-        <v>11347</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5976,10 +5817,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C371">
-        <v>5733</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5987,10 +5828,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C372">
-        <v>7795</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5998,10 +5839,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="C373">
-        <v>6038</v>
+        <v>6547</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6012,7 +5853,7 @@
         <v>9.1</v>
       </c>
       <c r="C374">
-        <v>5412</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6020,10 +5861,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C375">
-        <v>10182</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6031,10 +5872,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="C376">
-        <v>5232</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6042,10 +5883,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C377">
-        <v>44124</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6053,10 +5894,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C378">
-        <v>12535</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6064,10 +5905,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C379">
-        <v>8158</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6075,10 +5916,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C380">
-        <v>9854</v>
+        <v>12852</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6086,10 +5927,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>9.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C381">
-        <v>11621</v>
+        <v>37358</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6097,10 +5938,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="C382">
-        <v>13708</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6108,10 +5949,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C383">
-        <v>6259</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6119,10 +5960,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C384">
-        <v>6777</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6130,10 +5971,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C385">
-        <v>6260</v>
+        <v>17983</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6141,10 +5982,10 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C386">
-        <v>11811</v>
+        <v>15496</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6152,10 +5993,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C387">
-        <v>5158</v>
+        <v>26766</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6163,10 +6004,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="C388">
-        <v>32290</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6174,10 +6015,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="C389">
-        <v>8493</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6185,10 +6026,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="C390">
-        <v>34175</v>
+        <v>17647</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6199,7 +6040,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C391">
-        <v>66614</v>
+        <v>28418</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6207,10 +6048,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="C392">
-        <v>194078</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6218,10 +6059,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="C393">
-        <v>135790</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6229,10 +6070,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="C394">
-        <v>7895</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6240,10 +6081,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="C395">
-        <v>6118</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6251,10 +6092,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C396">
-        <v>14002</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6262,10 +6103,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C397">
-        <v>7677</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6273,10 +6114,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C398">
-        <v>6843</v>
+        <v>24043</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6284,10 +6125,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="C399">
-        <v>6838</v>
+        <v>101883</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6295,10 +6136,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C400">
-        <v>6330</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6306,10 +6147,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="C401">
-        <v>7449</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6317,10 +6158,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C402">
-        <v>25776</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6331,7 +6172,7 @@
         <v>9.1</v>
       </c>
       <c r="C403">
-        <v>16756</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6339,10 +6180,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C404">
-        <v>19732</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6350,10 +6191,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C405">
-        <v>19238</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6361,10 +6202,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C406">
-        <v>14498</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6372,10 +6213,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C407">
-        <v>5789</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6383,10 +6224,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C408">
-        <v>9588</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6394,10 +6235,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="C409">
-        <v>9842</v>
+        <v>8545</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6405,10 +6246,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C410">
-        <v>14934</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6416,10 +6257,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C411">
-        <v>9455</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6430,7 +6271,7 @@
         <v>9.5</v>
       </c>
       <c r="C412">
-        <v>11328</v>
+        <v>6344</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6438,10 +6279,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C413">
-        <v>60580</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6452,7 +6293,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C414">
-        <v>9282</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6460,10 +6301,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="C415">
-        <v>14560</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6471,10 +6312,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C416">
-        <v>11678</v>
+        <v>43802</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6482,10 +6323,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C417">
-        <v>11759</v>
+        <v>83098</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6493,10 +6334,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C418">
-        <v>7542</v>
+        <v>60447</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6504,10 +6345,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C419">
-        <v>7005</v>
+        <v>14880</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6515,10 +6356,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="C420">
-        <v>9253</v>
+        <v>19152</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6526,10 +6367,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C421">
-        <v>8369</v>
+        <v>15415</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6537,10 +6378,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C422">
-        <v>8822</v>
+        <v>16862</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6548,10 +6389,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="C423">
-        <v>7777</v>
+        <v>18963</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6559,10 +6400,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C424">
-        <v>6321</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6573,7 +6414,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C425">
-        <v>7789</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6581,10 +6422,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="C426">
-        <v>6506</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6592,10 +6433,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="C427">
-        <v>5460</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6603,10 +6444,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C428">
-        <v>5214</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6614,10 +6455,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C429">
-        <v>6020</v>
+        <v>25348</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6625,10 +6466,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C430">
-        <v>6708</v>
+        <v>11748</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6636,10 +6477,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C431">
-        <v>5666</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6647,10 +6488,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C432">
-        <v>5900</v>
+        <v>16614</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6658,10 +6499,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C433">
-        <v>12686</v>
+        <v>10113</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6669,10 +6510,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C434">
-        <v>37241</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6680,10 +6521,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C435">
-        <v>6972</v>
+        <v>8781</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6691,10 +6532,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C436">
-        <v>8021</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6702,10 +6543,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="C437">
-        <v>5924</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6713,10 +6554,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C438">
-        <v>17849</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6724,10 +6565,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C439">
-        <v>15357</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6735,10 +6576,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C440">
-        <v>26600</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6746,10 +6587,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C441">
-        <v>7869</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6760,7 +6601,7 @@
         <v>9.6</v>
       </c>
       <c r="C442">
-        <v>5817</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6771,7 +6612,7 @@
         <v>9.4</v>
       </c>
       <c r="C443">
-        <v>17605</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6779,10 +6620,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C444">
-        <v>28342</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6790,10 +6631,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="C445">
-        <v>7056</v>
+        <v>17727</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6801,10 +6642,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C446">
-        <v>5018</v>
+        <v>9385</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6812,10 +6653,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C447">
-        <v>6386</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6823,10 +6664,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="C448">
-        <v>6390</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6834,10 +6675,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C449">
-        <v>6846</v>
+        <v>14743</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6845,10 +6686,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C450">
-        <v>5999</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6856,10 +6697,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C451">
-        <v>23867</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6867,10 +6708,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="C452">
-        <v>101285</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6878,10 +6719,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="C453">
-        <v>5554</v>
+        <v>7064</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6889,10 +6730,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="C454">
-        <v>5236</v>
+        <v>7052</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6900,10 +6741,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C455">
-        <v>7147</v>
+        <v>35132</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6911,593 +6752,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="C456">
-        <v>6831</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
-      <c r="A457" t="s">
-        <v>455</v>
-      </c>
-      <c r="B457">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C457">
-        <v>7342</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
-      <c r="A458" t="s">
-        <v>456</v>
-      </c>
-      <c r="B458">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C458">
-        <v>6307</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
-      <c r="A459" t="s">
-        <v>457</v>
-      </c>
-      <c r="B459">
-        <v>9.5</v>
-      </c>
-      <c r="C459">
-        <v>5567</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
-      <c r="A460" t="s">
-        <v>458</v>
-      </c>
-      <c r="B460">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C460">
-        <v>6382</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
-      <c r="A461" t="s">
-        <v>459</v>
-      </c>
-      <c r="B461">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C461">
-        <v>6741</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3">
-      <c r="A462" t="s">
-        <v>460</v>
-      </c>
-      <c r="B462">
-        <v>9.5</v>
-      </c>
-      <c r="C462">
-        <v>8495</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
-      <c r="A463" t="s">
-        <v>461</v>
-      </c>
-      <c r="B463">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C463">
-        <v>6868</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
-      <c r="A464" t="s">
-        <v>462</v>
-      </c>
-      <c r="B464">
-        <v>9.4</v>
-      </c>
-      <c r="C464">
-        <v>5245</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="A465" t="s">
-        <v>463</v>
-      </c>
-      <c r="B465">
-        <v>9.5</v>
-      </c>
-      <c r="C465">
-        <v>6303</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="A466" t="s">
-        <v>464</v>
-      </c>
-      <c r="B466">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C466">
-        <v>13375</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" t="s">
-        <v>465</v>
-      </c>
-      <c r="B467">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C467">
-        <v>5532</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
-      <c r="A468" t="s">
-        <v>466</v>
-      </c>
-      <c r="B468">
-        <v>9.5</v>
-      </c>
-      <c r="C468">
-        <v>8183</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
-      <c r="A469" t="s">
-        <v>467</v>
-      </c>
-      <c r="B469">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C469">
-        <v>43641</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="A470" t="s">
-        <v>468</v>
-      </c>
-      <c r="B470">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="C470">
-        <v>82849</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
-      <c r="A471" t="s">
-        <v>469</v>
-      </c>
-      <c r="B471">
-        <v>9.4</v>
-      </c>
-      <c r="C471">
-        <v>60261</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
-      <c r="A472" t="s">
-        <v>470</v>
-      </c>
-      <c r="B472">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C472">
-        <v>14683</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
-      <c r="A473" t="s">
-        <v>471</v>
-      </c>
-      <c r="B473">
-        <v>9.6</v>
-      </c>
-      <c r="C473">
-        <v>18905</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
-      <c r="A474" t="s">
-        <v>472</v>
-      </c>
-      <c r="B474">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C474">
-        <v>15343</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
-      <c r="A475" t="s">
-        <v>473</v>
-      </c>
-      <c r="B475">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C475">
-        <v>16778</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
-      <c r="A476" t="s">
-        <v>474</v>
-      </c>
-      <c r="B476">
-        <v>9.4</v>
-      </c>
-      <c r="C476">
-        <v>18866</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
-      <c r="A477" t="s">
-        <v>475</v>
-      </c>
-      <c r="B477">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C477">
-        <v>5492</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
-      <c r="A478" t="s">
-        <v>476</v>
-      </c>
-      <c r="B478">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C478">
-        <v>6195</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
-      <c r="A479" t="s">
-        <v>477</v>
-      </c>
-      <c r="B479">
-        <v>9.5</v>
-      </c>
-      <c r="C479">
-        <v>8106</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" t="s">
-        <v>478</v>
-      </c>
-      <c r="B480">
-        <v>9.4</v>
-      </c>
-      <c r="C480">
-        <v>6439</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
-      <c r="A481" t="s">
-        <v>479</v>
-      </c>
-      <c r="B481">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C481">
-        <v>5856</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="A482" t="s">
-        <v>480</v>
-      </c>
-      <c r="B482">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C482">
-        <v>24880</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
-      <c r="A483" t="s">
-        <v>481</v>
-      </c>
-      <c r="B483">
-        <v>9.6</v>
-      </c>
-      <c r="C483">
-        <v>11646</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3">
-      <c r="A484" t="s">
-        <v>482</v>
-      </c>
-      <c r="B484">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C484">
-        <v>6084</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
-      <c r="A485" t="s">
-        <v>483</v>
-      </c>
-      <c r="B485">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C485">
-        <v>16568</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
-      <c r="A486" t="s">
-        <v>484</v>
-      </c>
-      <c r="B486">
-        <v>9.5</v>
-      </c>
-      <c r="C486">
-        <v>10109</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
-      <c r="A487" t="s">
-        <v>485</v>
-      </c>
-      <c r="B487">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="C487">
-        <v>8670</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
-      <c r="A488" t="s">
-        <v>486</v>
-      </c>
-      <c r="B488">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C488">
-        <v>5077</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
-      <c r="A489" t="s">
-        <v>487</v>
-      </c>
-      <c r="B489">
-        <v>9.5</v>
-      </c>
-      <c r="C489">
-        <v>6138</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
-      <c r="A490" t="s">
-        <v>488</v>
-      </c>
-      <c r="B490">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C490">
-        <v>9175</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
-      <c r="A491" t="s">
-        <v>489</v>
-      </c>
-      <c r="B491">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C491">
-        <v>8284</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3">
-      <c r="A492" t="s">
-        <v>490</v>
-      </c>
-      <c r="B492">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C492">
-        <v>5870</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
-      <c r="A493" t="s">
-        <v>491</v>
-      </c>
-      <c r="B493">
-        <v>9.6</v>
-      </c>
-      <c r="C493">
-        <v>7713</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="A494" t="s">
-        <v>492</v>
-      </c>
-      <c r="B494">
-        <v>9.4</v>
-      </c>
-      <c r="C494">
-        <v>7709</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
-      <c r="A495" t="s">
-        <v>493</v>
-      </c>
-      <c r="B495">
-        <v>9.4</v>
-      </c>
-      <c r="C495">
-        <v>8106</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
-      <c r="A496" t="s">
-        <v>494</v>
-      </c>
-      <c r="B496">
-        <v>9.9</v>
-      </c>
-      <c r="C496">
-        <v>17207</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="A497" t="s">
-        <v>495</v>
-      </c>
-      <c r="B497">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C497">
-        <v>9149</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
-      <c r="A498" t="s">
-        <v>496</v>
-      </c>
-      <c r="B498">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C498">
-        <v>7242</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="A499" t="s">
-        <v>497</v>
-      </c>
-      <c r="B499">
-        <v>9.6</v>
-      </c>
-      <c r="C499">
-        <v>8977</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
-      <c r="A500" t="s">
-        <v>498</v>
-      </c>
-      <c r="B500">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="C500">
-        <v>14394</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
-      <c r="A501" t="s">
-        <v>499</v>
-      </c>
-      <c r="B501">
-        <v>9.6</v>
-      </c>
-      <c r="C501">
-        <v>7495</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
-      <c r="A502" t="s">
-        <v>500</v>
-      </c>
-      <c r="B502">
-        <v>9.5</v>
-      </c>
-      <c r="C502">
-        <v>6485</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="A503" t="s">
-        <v>501</v>
-      </c>
-      <c r="B503">
-        <v>9.6</v>
-      </c>
-      <c r="C503">
-        <v>6996</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
-      <c r="A504" t="s">
-        <v>502</v>
-      </c>
-      <c r="B504">
-        <v>9.6</v>
-      </c>
-      <c r="C504">
-        <v>7011</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
-      <c r="A505" t="s">
-        <v>503</v>
-      </c>
-      <c r="B505">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C505">
-        <v>34930</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
-      <c r="A506" t="s">
-        <v>504</v>
-      </c>
-      <c r="B506">
-        <v>9.4</v>
-      </c>
-      <c r="C506">
-        <v>8140</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
-      <c r="A507" t="s">
-        <v>505</v>
-      </c>
-      <c r="B507">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C507">
-        <v>9174</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
-      <c r="A508" t="s">
-        <v>506</v>
-      </c>
-      <c r="B508">
-        <v>9.6</v>
-      </c>
-      <c r="C508">
-        <v>8798</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
-      <c r="A509" t="s">
-        <v>507</v>
-      </c>
-      <c r="B509">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C509">
-        <v>5726</v>
+        <v>8211</v>
       </c>
     </row>
   </sheetData>
